--- a/1 - Homelessness/data/DeinstitutionalizationDemystified.xlsx
+++ b/1 - Homelessness/data/DeinstitutionalizationDemystified.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14360" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Inpatient_vs_Outpatient" sheetId="1" r:id="rId1"/>
+    <sheet name="Inpatient_Outpatient_Episodes" sheetId="1" r:id="rId1"/>
+    <sheet name="Rsdnt_Admsn_Release_Death" sheetId="2" r:id="rId2"/>
+    <sheet name="HomicideTrends" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="41">
   <si>
     <t>Number of patient care episodes</t>
   </si>
@@ -70,6 +72,81 @@
   </si>
   <si>
     <t>Number, percent distribution, and rate per 100,000 population of inpatient and outpatient care episodes in selected mental health facilities in the U.S., by type of facilicity, in 1955, 1965, 1971, 1975, and 1977</t>
+  </si>
+  <si>
+    <t>"Source (except for 1977): Provisional Data on Patient Care Episodes in Mental Health Facilities, National Institute of Mental Health"
+"Rockville, Md, 1977. Source for 1977 data: unpublished provisional data from the National Instirute of Mental Health."
+"lncludes estimates of episodes of care in residential treatment centers for emotionally disturbed children."</t>
+  </si>
+  <si>
+    <t>Number of resident patients, total admissions, net releases, and deaths in state and
+county mental hospitals in the U.S., 1950-1980’</t>
+  </si>
+  <si>
+    <t>Number of Hospitals</t>
+  </si>
+  <si>
+    <t>Resident patients at end of year</t>
+  </si>
+  <si>
+    <t>Admissions</t>
+  </si>
+  <si>
+    <t>Net Releases</t>
+  </si>
+  <si>
+    <t>Additions</t>
+  </si>
+  <si>
+    <t>Discontinuations</t>
+  </si>
+  <si>
+    <t>Deaths</t>
+  </si>
+  <si>
+    <t>Bureau of Justice Statistics</t>
+  </si>
+  <si>
+    <t>Filename: htus8008f02.csv</t>
+  </si>
+  <si>
+    <t>Report title: Homicide Trends in United States</t>
+  </si>
+  <si>
+    <t>Data source: Supplementary Homicide Report</t>
+  </si>
+  <si>
+    <t>Authors: Erica Smith and Alexia Cooper</t>
+  </si>
+  <si>
+    <t>Refer questions to: askbjs@usdoj.gov (202) 307-0765</t>
+  </si>
+  <si>
+    <t>Date of version: 11/16/11</t>
+  </si>
+  <si>
+    <t>Figure 2. Number of homicide victims, 1950-2010</t>
+  </si>
+  <si>
+    <t>Number of victims</t>
+  </si>
+  <si>
+    <t>Note: Data are based on annual estimates of homicide from previously published versions of Crime in the United States. Data for 1989 to 2008 reflect updated homicide estimates from Crime in the United States, 2008. Data for 2009 and 2010 reflect updated homicide estimates from Crime in the United States, 2010.</t>
+  </si>
+  <si>
+    <t>Source: FBI, Uniform Crime Reports, 1950-2008.</t>
+  </si>
+  <si>
+    <t>Homicide victimization, 1950-2008</t>
+  </si>
+  <si>
+    <t>Homicide rate per 100,000 population</t>
+  </si>
+  <si>
+    <t>Estimated Number of Homicides</t>
+  </si>
+  <si>
+    <t>Rate of homicide per 100,000</t>
   </si>
 </sst>
 </file>
@@ -129,7 +206,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -370,13 +447,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -399,9 +523,6 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -414,10 +535,33 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -747,28 +891,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:K19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="5" spans="1:13">
       <c r="C5" s="3" t="s">
@@ -785,55 +932,55 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="16" thickBot="1">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:13" ht="61" thickBot="1">
+      <c r="A6" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="25" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="26"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="23"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="15">
@@ -1013,19 +1160,19 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="26"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="23"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="2">
@@ -1203,19 +1350,19 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="26"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="23"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="2">
@@ -1392,8 +1539,24 @@
         <v>233</v>
       </c>
     </row>
+    <row r="26" spans="1:11" ht="61" customHeight="1">
+      <c r="A26" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A26:K26"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="C5:H5"/>
     <mergeCell ref="A1:K1"/>
@@ -1409,4 +1572,2119 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="67" customHeight="1">
+      <c r="A1" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="24"/>
+    </row>
+    <row r="6" spans="1:9" ht="45">
+      <c r="A6" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="28">
+        <v>1950</v>
+      </c>
+      <c r="B7" s="28">
+        <v>322</v>
+      </c>
+      <c r="C7" s="29">
+        <v>512501</v>
+      </c>
+      <c r="D7" s="29">
+        <v>152286</v>
+      </c>
+      <c r="E7" s="29">
+        <v>99659</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="29">
+        <v>41280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="30">
+        <v>1951</v>
+      </c>
+      <c r="B8" s="30">
+        <v>322</v>
+      </c>
+      <c r="C8" s="31">
+        <v>520326</v>
+      </c>
+      <c r="D8" s="31">
+        <v>152079</v>
+      </c>
+      <c r="E8" s="31">
+        <v>101802</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="31">
+        <v>42107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="30">
+        <v>1952</v>
+      </c>
+      <c r="B9" s="30">
+        <v>329</v>
+      </c>
+      <c r="C9" s="31">
+        <v>531981</v>
+      </c>
+      <c r="D9" s="31">
+        <v>162908</v>
+      </c>
+      <c r="E9" s="31">
+        <v>107647</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="31">
+        <v>44303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="30">
+        <v>1953</v>
+      </c>
+      <c r="B10" s="30">
+        <v>332</v>
+      </c>
+      <c r="C10" s="31">
+        <v>545045</v>
+      </c>
+      <c r="D10" s="31">
+        <v>170621</v>
+      </c>
+      <c r="E10" s="31">
+        <v>113959</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="31">
+        <v>45087</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="30">
+        <v>1954</v>
+      </c>
+      <c r="B11" s="30">
+        <v>352</v>
+      </c>
+      <c r="C11" s="31">
+        <v>553979</v>
+      </c>
+      <c r="D11" s="31">
+        <v>171682</v>
+      </c>
+      <c r="E11" s="31">
+        <v>118775</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="31">
+        <v>42652</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="30">
+        <v>1955</v>
+      </c>
+      <c r="B12" s="30">
+        <v>275</v>
+      </c>
+      <c r="C12" s="31">
+        <v>558922</v>
+      </c>
+      <c r="D12" s="31">
+        <v>178003</v>
+      </c>
+      <c r="E12" s="31">
+        <v>126498</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="31">
+        <v>44384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="30">
+        <v>1956</v>
+      </c>
+      <c r="B13" s="30">
+        <v>278</v>
+      </c>
+      <c r="C13" s="31">
+        <v>551390</v>
+      </c>
+      <c r="D13" s="31">
+        <v>185597</v>
+      </c>
+      <c r="E13" s="31">
+        <v>145313</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="31">
+        <v>48236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="30">
+        <v>1957</v>
+      </c>
+      <c r="B14" s="30">
+        <v>277</v>
+      </c>
+      <c r="C14" s="31">
+        <v>548626</v>
+      </c>
+      <c r="D14" s="31">
+        <v>194497</v>
+      </c>
+      <c r="E14" s="31">
+        <v>150413</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="31">
+        <v>46848</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="30">
+        <v>1958</v>
+      </c>
+      <c r="B15" s="30">
+        <v>278</v>
+      </c>
+      <c r="C15" s="31">
+        <v>545182</v>
+      </c>
+      <c r="D15" s="31">
+        <v>209823</v>
+      </c>
+      <c r="E15" s="31">
+        <v>161884</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="31">
+        <v>51383</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="30">
+        <v>1959</v>
+      </c>
+      <c r="B16" s="30">
+        <v>279</v>
+      </c>
+      <c r="C16" s="31">
+        <v>541883</v>
+      </c>
+      <c r="D16" s="31">
+        <v>222791</v>
+      </c>
+      <c r="E16" s="31">
+        <v>176411</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="31">
+        <v>49647</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="30">
+        <v>1960</v>
+      </c>
+      <c r="B17" s="30">
+        <v>280</v>
+      </c>
+      <c r="C17" s="31">
+        <v>535540</v>
+      </c>
+      <c r="D17" s="31">
+        <v>234791</v>
+      </c>
+      <c r="E17" s="31">
+        <v>192818</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="31">
+        <v>49748</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="30">
+        <v>1961</v>
+      </c>
+      <c r="B18" s="30">
+        <v>285</v>
+      </c>
+      <c r="C18" s="31">
+        <v>527456</v>
+      </c>
+      <c r="D18" s="31">
+        <v>252742</v>
+      </c>
+      <c r="E18" s="31">
+        <v>215595</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="31">
+        <v>46880</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="30">
+        <v>1962</v>
+      </c>
+      <c r="B19" s="30">
+        <v>285</v>
+      </c>
+      <c r="C19" s="31">
+        <v>515640</v>
+      </c>
+      <c r="D19" s="31">
+        <v>269854</v>
+      </c>
+      <c r="E19" s="31">
+        <v>230158</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="31">
+        <v>49563</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="30">
+        <v>1963</v>
+      </c>
+      <c r="B20" s="30">
+        <v>284</v>
+      </c>
+      <c r="C20" s="31">
+        <v>504604</v>
+      </c>
+      <c r="D20" s="31">
+        <v>283591</v>
+      </c>
+      <c r="E20" s="31">
+        <v>245745</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="31">
+        <v>49052</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="30">
+        <v>1964</v>
+      </c>
+      <c r="B21" s="30">
+        <v>289</v>
+      </c>
+      <c r="C21" s="31">
+        <v>490449</v>
+      </c>
+      <c r="D21" s="31">
+        <v>299561</v>
+      </c>
+      <c r="E21" s="31">
+        <v>268616</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="31">
+        <v>44824</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="30">
+        <v>1965</v>
+      </c>
+      <c r="B22" s="30">
+        <v>290</v>
+      </c>
+      <c r="C22" s="31">
+        <v>475202</v>
+      </c>
+      <c r="D22" s="31">
+        <v>316664</v>
+      </c>
+      <c r="E22" s="31">
+        <v>288397</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="31">
+        <v>43964</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="30">
+        <v>1966</v>
+      </c>
+      <c r="B23" s="30">
+        <v>298</v>
+      </c>
+      <c r="C23" s="31">
+        <v>452089</v>
+      </c>
+      <c r="D23" s="31">
+        <v>328564</v>
+      </c>
+      <c r="E23" s="31">
+        <v>310370</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="31">
+        <v>42753</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="30">
+        <v>1967</v>
+      </c>
+      <c r="B24" s="30">
+        <v>307</v>
+      </c>
+      <c r="C24" s="31">
+        <v>426309</v>
+      </c>
+      <c r="D24" s="31">
+        <v>345673</v>
+      </c>
+      <c r="E24" s="31">
+        <v>332549</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="31">
+        <v>39608</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="30">
+        <v>1968</v>
+      </c>
+      <c r="B25" s="30">
+        <v>312</v>
+      </c>
+      <c r="C25" s="31">
+        <v>399152</v>
+      </c>
+      <c r="D25" s="31">
+        <v>367461</v>
+      </c>
+      <c r="E25" s="31">
+        <v>354996</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="31">
+        <v>39677</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="30">
+        <v>1969</v>
+      </c>
+      <c r="B26" s="30">
+        <v>314</v>
+      </c>
+      <c r="C26" s="31">
+        <v>369969</v>
+      </c>
+      <c r="D26" s="31">
+        <v>374771</v>
+      </c>
+      <c r="E26" s="31">
+        <v>367992</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" s="31">
+        <v>35962</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="30">
+        <v>1970</v>
+      </c>
+      <c r="B27" s="30">
+        <v>315</v>
+      </c>
+      <c r="C27" s="31">
+        <v>337619</v>
+      </c>
+      <c r="D27" s="31">
+        <v>384511</v>
+      </c>
+      <c r="E27" s="31">
+        <v>386937</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="31">
+        <v>30804</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="30">
+        <v>1971</v>
+      </c>
+      <c r="B28" s="30">
+        <v>321</v>
+      </c>
+      <c r="C28" s="31">
+        <v>308983</v>
+      </c>
+      <c r="D28" s="31">
+        <v>402472</v>
+      </c>
+      <c r="E28" s="31">
+        <v>405601</v>
+      </c>
+      <c r="F28" s="31">
+        <v>474923</v>
+      </c>
+      <c r="G28" s="31">
+        <v>501123</v>
+      </c>
+      <c r="H28" s="31">
+        <v>26835</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="30">
+        <v>1972</v>
+      </c>
+      <c r="B29" s="30">
+        <v>327</v>
+      </c>
+      <c r="C29" s="31">
+        <v>274837</v>
+      </c>
+      <c r="D29" s="31">
+        <v>390455</v>
+      </c>
+      <c r="E29" s="31">
+        <v>405348</v>
+      </c>
+      <c r="F29" s="31">
+        <v>460443</v>
+      </c>
+      <c r="G29" s="31">
+        <v>472282</v>
+      </c>
+      <c r="H29" s="31">
+        <v>23282</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="30">
+        <v>1973</v>
+      </c>
+      <c r="B30" s="30">
+        <v>334</v>
+      </c>
+      <c r="C30" s="31">
+        <v>248518</v>
+      </c>
+      <c r="D30" s="31">
+        <v>377020</v>
+      </c>
+      <c r="E30" s="31">
+        <v>387107</v>
+      </c>
+      <c r="F30" s="31">
+        <v>442530</v>
+      </c>
+      <c r="G30" s="31">
+        <v>454719</v>
+      </c>
+      <c r="H30" s="31">
+        <v>19899</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="30">
+        <v>1974</v>
+      </c>
+      <c r="B31" s="30">
+        <v>323</v>
+      </c>
+      <c r="C31" s="31">
+        <v>215573</v>
+      </c>
+      <c r="D31" s="31">
+        <v>374554</v>
+      </c>
+      <c r="E31" s="31">
+        <v>389179</v>
+      </c>
+      <c r="F31" s="31">
+        <v>434345</v>
+      </c>
+      <c r="G31" s="31">
+        <v>448203</v>
+      </c>
+      <c r="H31" s="31">
+        <v>16597</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="30">
+        <v>1975</v>
+      </c>
+      <c r="B32" s="30">
+        <v>313</v>
+      </c>
+      <c r="C32" s="31">
+        <v>193436</v>
+      </c>
+      <c r="D32" s="31">
+        <v>376156</v>
+      </c>
+      <c r="E32" s="31">
+        <v>384520</v>
+      </c>
+      <c r="F32" s="31">
+        <v>433529</v>
+      </c>
+      <c r="G32" s="31">
+        <v>442096</v>
+      </c>
+      <c r="H32" s="31">
+        <v>13401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="30">
+        <v>1976</v>
+      </c>
+      <c r="B33" s="30">
+        <v>300</v>
+      </c>
+      <c r="C33" s="31">
+        <v>170619</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="31">
+        <v>413559</v>
+      </c>
+      <c r="G33" s="31">
+        <v>421461</v>
+      </c>
+      <c r="H33" s="31">
+        <v>10922</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="30">
+        <v>1977</v>
+      </c>
+      <c r="B34" s="30">
+        <v>298</v>
+      </c>
+      <c r="C34" s="31">
+        <v>159523</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="31">
+        <v>414703</v>
+      </c>
+      <c r="G34" s="31">
+        <v>415314</v>
+      </c>
+      <c r="H34" s="31">
+        <v>9716</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="30">
+        <v>1978</v>
+      </c>
+      <c r="B35" s="30">
+        <v>284</v>
+      </c>
+      <c r="C35" s="31">
+        <v>153544</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="31">
+        <v>406407</v>
+      </c>
+      <c r="G35" s="31">
+        <v>404031</v>
+      </c>
+      <c r="H35" s="31">
+        <v>9080</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="30">
+        <v>1979</v>
+      </c>
+      <c r="B36" s="30">
+        <v>280</v>
+      </c>
+      <c r="C36" s="31">
+        <v>145616</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="31">
+        <v>406259</v>
+      </c>
+      <c r="G36" s="31">
+        <v>404300</v>
+      </c>
+      <c r="H36" s="31">
+        <v>7830</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="32">
+        <v>1980</v>
+      </c>
+      <c r="B37" s="32">
+        <v>275</v>
+      </c>
+      <c r="C37" s="33">
+        <v>137810</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="33">
+        <v>398451</v>
+      </c>
+      <c r="G37" s="33">
+        <v>395165</v>
+      </c>
+      <c r="H37" s="33">
+        <v>7108</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C147"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>1950</v>
+      </c>
+      <c r="B11">
+        <v>7020</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>1951</v>
+      </c>
+      <c r="B12">
+        <v>6820</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>1952</v>
+      </c>
+      <c r="B13">
+        <v>7210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>1953</v>
+      </c>
+      <c r="B14">
+        <v>7210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>1954</v>
+      </c>
+      <c r="B15">
+        <v>6850</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>1955</v>
+      </c>
+      <c r="B16">
+        <v>6850</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>1956</v>
+      </c>
+      <c r="B17">
+        <v>6970</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>1957</v>
+      </c>
+      <c r="B18">
+        <v>8060</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>1958</v>
+      </c>
+      <c r="B19">
+        <v>8220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>1959</v>
+      </c>
+      <c r="B20">
+        <v>8580</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>1960</v>
+      </c>
+      <c r="B21">
+        <v>9110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>1961</v>
+      </c>
+      <c r="B22">
+        <v>8740</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>1962</v>
+      </c>
+      <c r="B23">
+        <v>8530</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>1963</v>
+      </c>
+      <c r="B24">
+        <v>8640</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>1964</v>
+      </c>
+      <c r="B25">
+        <v>9360</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>1965</v>
+      </c>
+      <c r="B26">
+        <v>9960</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>1966</v>
+      </c>
+      <c r="B27">
+        <v>11040</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>1967</v>
+      </c>
+      <c r="B28">
+        <v>12240</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>1968</v>
+      </c>
+      <c r="B29">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>1969</v>
+      </c>
+      <c r="B30">
+        <v>14760</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>1970</v>
+      </c>
+      <c r="B31">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>1971</v>
+      </c>
+      <c r="B32">
+        <v>17780</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>1972</v>
+      </c>
+      <c r="B33">
+        <v>18670</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>1973</v>
+      </c>
+      <c r="B34">
+        <v>19640</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>1974</v>
+      </c>
+      <c r="B35">
+        <v>20710</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>1975</v>
+      </c>
+      <c r="B36">
+        <v>20510</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>1976</v>
+      </c>
+      <c r="B37">
+        <v>18780</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>1977</v>
+      </c>
+      <c r="B38">
+        <v>19120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>1978</v>
+      </c>
+      <c r="B39">
+        <v>19560</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>1979</v>
+      </c>
+      <c r="B40">
+        <v>21460</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>1980</v>
+      </c>
+      <c r="B41">
+        <v>23040</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>1981</v>
+      </c>
+      <c r="B42">
+        <v>22520</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>1982</v>
+      </c>
+      <c r="B43">
+        <v>21010</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>1983</v>
+      </c>
+      <c r="B44">
+        <v>19308</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>1984</v>
+      </c>
+      <c r="B45">
+        <v>18692</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>1985</v>
+      </c>
+      <c r="B46">
+        <v>18976</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>1986</v>
+      </c>
+      <c r="B47">
+        <v>20613</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>1987</v>
+      </c>
+      <c r="B48">
+        <v>20096</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>1988</v>
+      </c>
+      <c r="B49">
+        <v>20675</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>1989</v>
+      </c>
+      <c r="B50">
+        <v>21500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>1990</v>
+      </c>
+      <c r="B51">
+        <v>23438</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>1991</v>
+      </c>
+      <c r="B52">
+        <v>24703</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>1992</v>
+      </c>
+      <c r="B53">
+        <v>23760</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>1993</v>
+      </c>
+      <c r="B54">
+        <v>24526</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>1994</v>
+      </c>
+      <c r="B55">
+        <v>23326</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>1995</v>
+      </c>
+      <c r="B56">
+        <v>21606</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>1996</v>
+      </c>
+      <c r="B57">
+        <v>19645</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>1997</v>
+      </c>
+      <c r="B58">
+        <v>18208</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>1998</v>
+      </c>
+      <c r="B59">
+        <v>16974</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>1999</v>
+      </c>
+      <c r="B60">
+        <v>15522</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>2000</v>
+      </c>
+      <c r="B61">
+        <v>15586</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>2001</v>
+      </c>
+      <c r="B62">
+        <v>16039</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>2002</v>
+      </c>
+      <c r="B63">
+        <v>16229</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>2003</v>
+      </c>
+      <c r="B64">
+        <v>16582</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>2004</v>
+      </c>
+      <c r="B65">
+        <v>16137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>2005</v>
+      </c>
+      <c r="B66">
+        <v>16692</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>2006</v>
+      </c>
+      <c r="B67">
+        <v>17030</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>2007</v>
+      </c>
+      <c r="B68">
+        <v>16929</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>2008</v>
+      </c>
+      <c r="B69">
+        <v>16272</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>2009</v>
+      </c>
+      <c r="B70">
+        <v>15399</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>2010</v>
+      </c>
+      <c r="B71">
+        <v>14748</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" t="s">
+        <v>38</v>
+      </c>
+      <c r="C86" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>1950</v>
+      </c>
+      <c r="B87">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C87">
+        <v>7020</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>1951</v>
+      </c>
+      <c r="B88">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C88">
+        <v>6820</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>1952</v>
+      </c>
+      <c r="B89">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C89">
+        <v>7210</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>1953</v>
+      </c>
+      <c r="B90">
+        <v>4.5</v>
+      </c>
+      <c r="C90">
+        <v>7210</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>1954</v>
+      </c>
+      <c r="B91">
+        <v>4.2</v>
+      </c>
+      <c r="C91">
+        <v>6850</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>1955</v>
+      </c>
+      <c r="B92">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C92">
+        <v>6850</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>1956</v>
+      </c>
+      <c r="B93">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C93">
+        <v>6970</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>1957</v>
+      </c>
+      <c r="B94">
+        <v>4</v>
+      </c>
+      <c r="C94">
+        <v>8060</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>1958</v>
+      </c>
+      <c r="B95">
+        <v>4.8</v>
+      </c>
+      <c r="C95">
+        <v>8220</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>1959</v>
+      </c>
+      <c r="B96">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C96">
+        <v>8580</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>1960</v>
+      </c>
+      <c r="B97">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C97">
+        <v>9110</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>1961</v>
+      </c>
+      <c r="B98">
+        <v>4.8</v>
+      </c>
+      <c r="C98">
+        <v>8740</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>1962</v>
+      </c>
+      <c r="B99">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C99">
+        <v>8530</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>1963</v>
+      </c>
+      <c r="B100">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C100">
+        <v>8640</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>1964</v>
+      </c>
+      <c r="B101">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C101">
+        <v>9360</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>1965</v>
+      </c>
+      <c r="B102">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C102">
+        <v>9960</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>1966</v>
+      </c>
+      <c r="B103">
+        <v>5.6</v>
+      </c>
+      <c r="C103">
+        <v>11040</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>1967</v>
+      </c>
+      <c r="B104">
+        <v>6.2</v>
+      </c>
+      <c r="C104">
+        <v>12240</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>1968</v>
+      </c>
+      <c r="B105">
+        <v>6.9</v>
+      </c>
+      <c r="C105">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>1969</v>
+      </c>
+      <c r="B106">
+        <v>7.3</v>
+      </c>
+      <c r="C106">
+        <v>14760</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>1970</v>
+      </c>
+      <c r="B107">
+        <v>7.9</v>
+      </c>
+      <c r="C107">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>1971</v>
+      </c>
+      <c r="B108">
+        <v>8.6</v>
+      </c>
+      <c r="C108">
+        <v>17780</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>1972</v>
+      </c>
+      <c r="B109">
+        <v>9</v>
+      </c>
+      <c r="C109">
+        <v>18670</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>1973</v>
+      </c>
+      <c r="B110">
+        <v>9.4</v>
+      </c>
+      <c r="C110">
+        <v>19640</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>1974</v>
+      </c>
+      <c r="B111">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C111">
+        <v>20710</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>1975</v>
+      </c>
+      <c r="B112">
+        <v>9.6</v>
+      </c>
+      <c r="C112">
+        <v>20510</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>1976</v>
+      </c>
+      <c r="B113">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C113">
+        <v>18780</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>1977</v>
+      </c>
+      <c r="B114">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C114">
+        <v>19120</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>1978</v>
+      </c>
+      <c r="B115">
+        <v>9</v>
+      </c>
+      <c r="C115">
+        <v>19560</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>1979</v>
+      </c>
+      <c r="B116">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C116">
+        <v>21460</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>1980</v>
+      </c>
+      <c r="B117">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C117">
+        <v>23040</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>1981</v>
+      </c>
+      <c r="B118">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C118">
+        <v>22520</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>1982</v>
+      </c>
+      <c r="B119">
+        <v>9.1</v>
+      </c>
+      <c r="C119">
+        <v>21010</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>1983</v>
+      </c>
+      <c r="B120">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C120">
+        <v>19308</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>1984</v>
+      </c>
+      <c r="B121">
+        <v>7.9</v>
+      </c>
+      <c r="C121">
+        <v>18692</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>1985</v>
+      </c>
+      <c r="B122">
+        <v>7.9</v>
+      </c>
+      <c r="C122">
+        <v>18976</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>1986</v>
+      </c>
+      <c r="B123">
+        <v>8.6</v>
+      </c>
+      <c r="C123">
+        <v>20613</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <v>1987</v>
+      </c>
+      <c r="B124">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C124">
+        <v>20096</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <v>1988</v>
+      </c>
+      <c r="B125">
+        <v>8.4</v>
+      </c>
+      <c r="C125">
+        <v>20675</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <v>1989</v>
+      </c>
+      <c r="B126">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C126">
+        <v>21500</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>1990</v>
+      </c>
+      <c r="B127">
+        <v>9.4</v>
+      </c>
+      <c r="C127">
+        <v>23438</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>1991</v>
+      </c>
+      <c r="B128">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C128">
+        <v>24703</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129">
+        <v>1992</v>
+      </c>
+      <c r="B129">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C129">
+        <v>23760</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130">
+        <v>1993</v>
+      </c>
+      <c r="B130">
+        <v>9.5</v>
+      </c>
+      <c r="C130">
+        <v>24526</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <v>1994</v>
+      </c>
+      <c r="B131">
+        <v>9</v>
+      </c>
+      <c r="C131">
+        <v>23326</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132">
+        <v>1995</v>
+      </c>
+      <c r="B132">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C132">
+        <v>21606</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133">
+        <v>1996</v>
+      </c>
+      <c r="B133">
+        <v>7.4</v>
+      </c>
+      <c r="C133">
+        <v>19645</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134">
+        <v>1997</v>
+      </c>
+      <c r="B134">
+        <v>6.8</v>
+      </c>
+      <c r="C134">
+        <v>18208</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <v>1998</v>
+      </c>
+      <c r="B135">
+        <v>6.3</v>
+      </c>
+      <c r="C135">
+        <v>16974</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136">
+        <v>1999</v>
+      </c>
+      <c r="B136">
+        <v>5.7</v>
+      </c>
+      <c r="C136">
+        <v>15522</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137">
+        <v>2000</v>
+      </c>
+      <c r="B137">
+        <v>5.5</v>
+      </c>
+      <c r="C137">
+        <v>15586</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138">
+        <v>2001</v>
+      </c>
+      <c r="B138">
+        <v>5.6</v>
+      </c>
+      <c r="C138">
+        <v>16039</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139">
+        <v>2002</v>
+      </c>
+      <c r="B139">
+        <v>5.6</v>
+      </c>
+      <c r="C139">
+        <v>16229</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140">
+        <v>2003</v>
+      </c>
+      <c r="B140">
+        <v>5.7</v>
+      </c>
+      <c r="C140">
+        <v>16582</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141">
+        <v>2004</v>
+      </c>
+      <c r="B141">
+        <v>5.5</v>
+      </c>
+      <c r="C141">
+        <v>16137</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142">
+        <v>2005</v>
+      </c>
+      <c r="B142">
+        <v>5.6</v>
+      </c>
+      <c r="C142">
+        <v>16692</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <v>2006</v>
+      </c>
+      <c r="B143">
+        <v>5.7</v>
+      </c>
+      <c r="C143">
+        <v>17030</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144">
+        <v>2007</v>
+      </c>
+      <c r="B144">
+        <v>5.6</v>
+      </c>
+      <c r="C144">
+        <v>16929</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145">
+        <v>2008</v>
+      </c>
+      <c r="B145">
+        <v>5.4</v>
+      </c>
+      <c r="C145">
+        <v>16272</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>